--- a/HTTP-5206/http-5206-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5206/http-5206-kyle-cheung-timesheet-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5206\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\School\HTTP-5206\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177FB42E-3672-408A-93CF-124821C695E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BCF3AA-9F9C-4031-A474-43403DE7A797}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5102" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Navigation Exercise</t>
+  </si>
+  <si>
+    <t>card sorting exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card sorting exercise </t>
+  </si>
+  <si>
+    <t>error messages exercise</t>
+  </si>
+  <si>
+    <t>dataflow meeting</t>
   </si>
 </sst>
 </file>
@@ -565,17 +577,17 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -583,19 +595,19 @@
       <c r="C1" s="19"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -606,12 +618,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -622,7 +634,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -633,7 +645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -644,7 +656,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -655,7 +667,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -666,7 +678,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -677,99 +689,141 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="16">
+        <v>44236</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16">
+        <v>44236</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16">
+        <v>44243</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="16">
+        <v>44243</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="16">
+        <v>44243</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="16">
+        <v>44250</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16">
+        <v>44250</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="16"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="16"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="16"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="16"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="16"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="16"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="16"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="16"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="16"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="16"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="3">
         <f>SUM(C6:C28)</f>
-        <v>9.5</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5206/http-5206-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5206/http-5206-kyle-cheung-timesheet-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\School\HTTP-5206\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BCF3AA-9F9C-4031-A474-43403DE7A797}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9585BF4B-9ED5-4A46-80E2-30CCBAB85A59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>dataflow meeting</t>
+  </si>
+  <si>
+    <t>Feature Sprint</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,14 +770,26 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16">
+        <v>44257</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16">
+        <v>44260</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -823,7 +838,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="3">
         <f>SUM(C6:C28)</f>
-        <v>19.5</v>
+        <v>21.5</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5206/http-5206-kyle-cheung-timesheet-1.xlsx
+++ b/HTTP-5206/http-5206-kyle-cheung-timesheet-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyle\Documents\GitHub\School\HTTP-5206\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9585BF4B-9ED5-4A46-80E2-30CCBAB85A59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D997AE90-13CE-4F67-BD0D-2B97C4A73E15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5102" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -67,6 +67,45 @@
   </si>
   <si>
     <t>Feature Sprint</t>
+  </si>
+  <si>
+    <t>Designing Responsive homepage</t>
+  </si>
+  <si>
+    <t>Creating User Personas</t>
+  </si>
+  <si>
+    <t>Client Meeting</t>
+  </si>
+  <si>
+    <t>Client Meeting Prep</t>
+  </si>
+  <si>
+    <t>Client Meeting Rehearsal</t>
+  </si>
+  <si>
+    <t>Interface Design</t>
+  </si>
+  <si>
+    <t>Created feature Models in .Net</t>
+  </si>
+  <si>
+    <t>Set up Develepment Environment</t>
+  </si>
+  <si>
+    <t>Work on feature CRUD</t>
+  </si>
+  <si>
+    <t>Project Meeting with Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVP </t>
+  </si>
+  <si>
+    <t>Feature styling</t>
+  </si>
+  <si>
+    <t>Refactoring</t>
   </si>
 </sst>
 </file>
@@ -577,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F18B939-5BE8-4902-92F2-6CCFDDEDD9AE}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,53 +831,266 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="16">
+        <v>44264</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="16">
+        <v>44264</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="16">
+        <v>44266</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="1"/>
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16">
+        <v>44266</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="16">
+        <v>44271</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="16">
+        <v>44271</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="16">
+        <v>44273</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="16">
+        <v>44274</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="16">
+        <v>44275</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="16">
+        <v>44278</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="16">
+        <v>44278</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="16">
+        <v>44280</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="16">
+        <v>44285</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="16">
+        <v>44285</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="16">
+        <v>44286</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="16">
+        <v>44292</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="16">
+        <v>44293</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="16">
+        <v>44294</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="16">
+        <v>44295</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="16">
+        <v>44299</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="16">
+        <v>44307</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="16">
+        <v>44308</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="16">
+        <v>44309</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="3">
-        <f>SUM(C6:C28)</f>
-        <v>21.5</v>
+      <c r="B44" s="12"/>
+      <c r="C44" s="3">
+        <f>SUM(C6:C43)</f>
+        <v>88.75</v>
       </c>
     </row>
   </sheetData>
